--- a/log/sub-test_task-sentences_log.xlsx
+++ b/log/sub-test_task-sentences_log.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="59" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="72" uniqueCount="18">
   <si>
     <t>Trial</t>
   </si>
@@ -64,6 +64,9 @@
   </si>
   <si>
     <t>1) Completamente Verdadeiro</t>
+  </si>
+  <si>
+    <t>O queijo azul tem um sabor intenso e peculiar, ao contrário do queijo verde.</t>
   </si>
 </sst>
 </file>
@@ -117,8 +120,8 @@
   <cols>
     <col min="1" max="1" width="4.5546875" customWidth="true"/>
     <col min="2" max="2" width="9.44140625" customWidth="true"/>
-    <col min="3" max="3" width="38.44140625" customWidth="true"/>
-    <col min="4" max="4" width="25.5546875" customWidth="true"/>
+    <col min="3" max="3" width="62.44140625" customWidth="true"/>
+    <col min="4" max="4" width="8.77734375" customWidth="true"/>
     <col min="5" max="5" width="13.21875" customWidth="true"/>
     <col min="6" max="6" width="12.21875" customWidth="true"/>
     <col min="7" max="7" width="8.88671875" customWidth="true"/>
@@ -172,17 +175,11 @@
         <v>2</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="0">
-        <v>1</v>
-      </c>
-      <c r="F3" s="0">
-        <v>5.8011545001063496</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="D3" s="0"/>
+      <c r="E3" s="0"/>
+      <c r="F3" s="0"/>
       <c r="G3" s="0" t="s">
         <v>11</v>
       </c>
@@ -197,41 +194,29 @@
       <c r="C4" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="0">
-        <v>1</v>
-      </c>
-      <c r="F4" s="0">
-        <v>4.0523398998193443</v>
-      </c>
+      <c r="D4" s="0"/>
+      <c r="E4" s="0"/>
+      <c r="F4" s="0"/>
       <c r="G4" s="0" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B5" s="0">
-        <v>4</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>16</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C5" s="0"/>
+      <c r="D5" s="0"/>
       <c r="E5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" s="0">
-        <v>3.7518798001110554</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>11</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G5" s="0"/>
     </row>
     <row r="6">
       <c r="A6" s="0">

--- a/log/sub-test_task-sentences_log.xlsx
+++ b/log/sub-test_task-sentences_log.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="72" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="143" uniqueCount="47">
   <si>
     <t>Trial</t>
   </si>
@@ -67,6 +67,93 @@
   </si>
   <si>
     <t>O queijo azul tem um sabor intenso e peculiar, ao contrário do queijo verde.</t>
+  </si>
+  <si>
+    <t>Gosto de construir armários de cozinha.</t>
+  </si>
+  <si>
+    <t>Gosto de assentar tijolos ou azulejos.</t>
+  </si>
+  <si>
+    <t>Gostava de desenvolver um medicamento novo.</t>
+  </si>
+  <si>
+    <t>Gosto de estudar maneiras de reduzir a poluição da água.</t>
+  </si>
+  <si>
+    <t>Tenho medo de perder a minha sanidade mental.</t>
+  </si>
+  <si>
+    <t>Sinto-me melancólico(a) e deprimido(a).</t>
+  </si>
+  <si>
+    <t>Não consigo compreender tão bem o que leio como costumava.</t>
+  </si>
+  <si>
+    <t>Gostaria de pôr termo à minha vida.</t>
+  </si>
+  <si>
+    <t>Gosto de escrever livros ou peças de teatro.</t>
+  </si>
+  <si>
+    <t>Gosto de tocar um instrumento musical.</t>
+  </si>
+  <si>
+    <t>Gosto de ensinar a alguém uma rotina de exercícios.</t>
+  </si>
+  <si>
+    <t>Gosto de ajudar pessoas com problemas pessoais ou emocionais.</t>
+  </si>
+  <si>
+    <t>De manhã sinto-me particularmente mal.</t>
+  </si>
+  <si>
+    <t>Já não tenho uma relação próxima com outras pessoas.</t>
+  </si>
+  <si>
+    <t>Sinto que estou prestes a desmoronar.</t>
+  </si>
+  <si>
+    <t>Tenho constantemente medo de dizer ou fazer algo errado.</t>
+  </si>
+  <si>
+    <t>Gosto de comprar e vender ações e obrigações financeiras.</t>
+  </si>
+  <si>
+    <t>Gosto de gerir uma loja.</t>
+  </si>
+  <si>
+    <t>Gosto de desenvolver uma folha de cálculo usando software de computador.</t>
+  </si>
+  <si>
+    <t>Gosto de fazer a revisão de registos ou formulários.</t>
+  </si>
+  <si>
+    <t>Atualmente estou muito menos interessado(a) na minha vida amorosa do que anteriormente.</t>
+  </si>
+  <si>
+    <t>Muitas vezes sinto-me simplesmente miserável.</t>
+  </si>
+  <si>
+    <t>Por mais que tente, não consigo pensar com clareza.</t>
+  </si>
+  <si>
+    <t>Já não tenho qualquer sentimento.</t>
+  </si>
+  <si>
+    <t>Gosto de reparar eletrodomésticos.</t>
+  </si>
+  <si>
+    <t>Gosto de criar peixes.</t>
+  </si>
+  <si>
+    <t>Gosto de realizar experiências químicas.</t>
+  </si>
+  <si>
+    <t>Gosto de estudar o movimento dos planetas.</t>
+  </si>
+  <si>
+    <t>neutral</t>
   </si>
 </sst>
 </file>
@@ -120,7 +207,7 @@
   <cols>
     <col min="1" max="1" width="4.5546875" customWidth="true"/>
     <col min="2" max="2" width="9.44140625" customWidth="true"/>
-    <col min="3" max="3" width="62.44140625" customWidth="true"/>
+    <col min="3" max="3" width="76.6640625" customWidth="true"/>
     <col min="4" max="4" width="8.77734375" customWidth="true"/>
     <col min="5" max="5" width="13.21875" customWidth="true"/>
     <col min="6" max="6" width="12.21875" customWidth="true"/>
@@ -158,7 +245,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D2" s="0"/>
       <c r="E2" s="0"/>
@@ -175,7 +262,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="D3" s="0"/>
       <c r="E3" s="0"/>
@@ -192,7 +279,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D4" s="0"/>
       <c r="E4" s="0"/>
@@ -203,496 +290,496 @@
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B5" s="0">
-        <v>0</v>
-      </c>
-      <c r="C5" s="0"/>
+        <v>4</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>6</v>
+      </c>
       <c r="D5" s="0"/>
-      <c r="E5" s="0">
-        <v>0</v>
-      </c>
-      <c r="F5" s="0">
-        <v>0</v>
-      </c>
-      <c r="G5" s="0"/>
+      <c r="E5" s="0"/>
+      <c r="F5" s="0"/>
+      <c r="G5" s="0" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B6" s="0">
-        <v>0</v>
-      </c>
-      <c r="C6" s="0"/>
+        <v>1</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>18</v>
+      </c>
       <c r="D6" s="0"/>
-      <c r="E6" s="0">
-        <v>0</v>
-      </c>
-      <c r="F6" s="0">
-        <v>0</v>
-      </c>
-      <c r="G6" s="0"/>
+      <c r="E6" s="0"/>
+      <c r="F6" s="0"/>
+      <c r="G6" s="0" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B7" s="0">
-        <v>0</v>
-      </c>
-      <c r="C7" s="0"/>
+        <v>2</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>19</v>
+      </c>
       <c r="D7" s="0"/>
-      <c r="E7" s="0">
-        <v>0</v>
-      </c>
-      <c r="F7" s="0">
-        <v>0</v>
-      </c>
-      <c r="G7" s="0"/>
+      <c r="E7" s="0"/>
+      <c r="F7" s="0"/>
+      <c r="G7" s="0" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B8" s="0">
-        <v>0</v>
-      </c>
-      <c r="C8" s="0"/>
+        <v>3</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>20</v>
+      </c>
       <c r="D8" s="0"/>
-      <c r="E8" s="0">
-        <v>0</v>
-      </c>
-      <c r="F8" s="0">
-        <v>0</v>
-      </c>
-      <c r="G8" s="0"/>
+      <c r="E8" s="0"/>
+      <c r="F8" s="0"/>
+      <c r="G8" s="0" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B9" s="0">
-        <v>0</v>
-      </c>
-      <c r="C9" s="0"/>
+        <v>4</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>21</v>
+      </c>
       <c r="D9" s="0"/>
-      <c r="E9" s="0">
-        <v>0</v>
-      </c>
-      <c r="F9" s="0">
-        <v>0</v>
-      </c>
-      <c r="G9" s="0"/>
+      <c r="E9" s="0"/>
+      <c r="F9" s="0"/>
+      <c r="G9" s="0" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B10" s="0">
-        <v>0</v>
-      </c>
-      <c r="C10" s="0"/>
+        <v>5</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>22</v>
+      </c>
       <c r="D10" s="0"/>
-      <c r="E10" s="0">
-        <v>0</v>
-      </c>
-      <c r="F10" s="0">
-        <v>0</v>
-      </c>
-      <c r="G10" s="0"/>
+      <c r="E10" s="0"/>
+      <c r="F10" s="0"/>
+      <c r="G10" s="0" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B11" s="0">
-        <v>0</v>
-      </c>
-      <c r="C11" s="0"/>
+        <v>6</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>23</v>
+      </c>
       <c r="D11" s="0"/>
-      <c r="E11" s="0">
-        <v>0</v>
-      </c>
-      <c r="F11" s="0">
-        <v>0</v>
-      </c>
-      <c r="G11" s="0"/>
+      <c r="E11" s="0"/>
+      <c r="F11" s="0"/>
+      <c r="G11" s="0" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B12" s="0">
-        <v>0</v>
-      </c>
-      <c r="C12" s="0"/>
+        <v>7</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>24</v>
+      </c>
       <c r="D12" s="0"/>
-      <c r="E12" s="0">
-        <v>0</v>
-      </c>
-      <c r="F12" s="0">
-        <v>0</v>
-      </c>
-      <c r="G12" s="0"/>
+      <c r="E12" s="0"/>
+      <c r="F12" s="0"/>
+      <c r="G12" s="0" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="B13" s="0">
-        <v>0</v>
-      </c>
-      <c r="C13" s="0"/>
+        <v>8</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>25</v>
+      </c>
       <c r="D13" s="0"/>
-      <c r="E13" s="0">
-        <v>0</v>
-      </c>
-      <c r="F13" s="0">
-        <v>0</v>
-      </c>
-      <c r="G13" s="0"/>
+      <c r="E13" s="0"/>
+      <c r="F13" s="0"/>
+      <c r="G13" s="0" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="B14" s="0">
-        <v>0</v>
-      </c>
-      <c r="C14" s="0"/>
+        <v>5</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>26</v>
+      </c>
       <c r="D14" s="0"/>
-      <c r="E14" s="0">
-        <v>0</v>
-      </c>
-      <c r="F14" s="0">
-        <v>0</v>
-      </c>
-      <c r="G14" s="0"/>
+      <c r="E14" s="0"/>
+      <c r="F14" s="0"/>
+      <c r="G14" s="0" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="B15" s="0">
-        <v>0</v>
-      </c>
-      <c r="C15" s="0"/>
+        <v>6</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>27</v>
+      </c>
       <c r="D15" s="0"/>
-      <c r="E15" s="0">
-        <v>0</v>
-      </c>
-      <c r="F15" s="0">
-        <v>0</v>
-      </c>
-      <c r="G15" s="0"/>
+      <c r="E15" s="0"/>
+      <c r="F15" s="0"/>
+      <c r="G15" s="0" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="B16" s="0">
-        <v>0</v>
-      </c>
-      <c r="C16" s="0"/>
+        <v>7</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>28</v>
+      </c>
       <c r="D16" s="0"/>
-      <c r="E16" s="0">
-        <v>0</v>
-      </c>
-      <c r="F16" s="0">
-        <v>0</v>
-      </c>
-      <c r="G16" s="0"/>
+      <c r="E16" s="0"/>
+      <c r="F16" s="0"/>
+      <c r="G16" s="0" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="B17" s="0">
-        <v>0</v>
-      </c>
-      <c r="C17" s="0"/>
+        <v>8</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>29</v>
+      </c>
       <c r="D17" s="0"/>
-      <c r="E17" s="0">
-        <v>0</v>
-      </c>
-      <c r="F17" s="0">
-        <v>0</v>
-      </c>
-      <c r="G17" s="0"/>
+      <c r="E17" s="0"/>
+      <c r="F17" s="0"/>
+      <c r="G17" s="0" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="B18" s="0">
-        <v>0</v>
-      </c>
-      <c r="C18" s="0"/>
+        <v>9</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>30</v>
+      </c>
       <c r="D18" s="0"/>
-      <c r="E18" s="0">
-        <v>0</v>
-      </c>
-      <c r="F18" s="0">
-        <v>0</v>
-      </c>
-      <c r="G18" s="0"/>
+      <c r="E18" s="0"/>
+      <c r="F18" s="0"/>
+      <c r="G18" s="0" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="B19" s="0">
-        <v>0</v>
-      </c>
-      <c r="C19" s="0"/>
+        <v>10</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>31</v>
+      </c>
       <c r="D19" s="0"/>
-      <c r="E19" s="0">
-        <v>0</v>
-      </c>
-      <c r="F19" s="0">
-        <v>0</v>
-      </c>
-      <c r="G19" s="0"/>
+      <c r="E19" s="0"/>
+      <c r="F19" s="0"/>
+      <c r="G19" s="0" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="B20" s="0">
-        <v>0</v>
-      </c>
-      <c r="C20" s="0"/>
+        <v>11</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>32</v>
+      </c>
       <c r="D20" s="0"/>
-      <c r="E20" s="0">
-        <v>0</v>
-      </c>
-      <c r="F20" s="0">
-        <v>0</v>
-      </c>
-      <c r="G20" s="0"/>
+      <c r="E20" s="0"/>
+      <c r="F20" s="0"/>
+      <c r="G20" s="0" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B21" s="0">
-        <v>0</v>
-      </c>
-      <c r="C21" s="0"/>
+        <v>12</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>33</v>
+      </c>
       <c r="D21" s="0"/>
-      <c r="E21" s="0">
-        <v>0</v>
-      </c>
-      <c r="F21" s="0">
-        <v>0</v>
-      </c>
-      <c r="G21" s="0"/>
+      <c r="E21" s="0"/>
+      <c r="F21" s="0"/>
+      <c r="G21" s="0" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="B22" s="0">
-        <v>0</v>
-      </c>
-      <c r="C22" s="0"/>
+        <v>9</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>34</v>
+      </c>
       <c r="D22" s="0"/>
-      <c r="E22" s="0">
-        <v>0</v>
-      </c>
-      <c r="F22" s="0">
-        <v>0</v>
-      </c>
-      <c r="G22" s="0"/>
+      <c r="E22" s="0"/>
+      <c r="F22" s="0"/>
+      <c r="G22" s="0" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="B23" s="0">
-        <v>0</v>
-      </c>
-      <c r="C23" s="0"/>
+        <v>10</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>35</v>
+      </c>
       <c r="D23" s="0"/>
-      <c r="E23" s="0">
-        <v>0</v>
-      </c>
-      <c r="F23" s="0">
-        <v>0</v>
-      </c>
-      <c r="G23" s="0"/>
+      <c r="E23" s="0"/>
+      <c r="F23" s="0"/>
+      <c r="G23" s="0" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="B24" s="0">
-        <v>0</v>
-      </c>
-      <c r="C24" s="0"/>
+        <v>11</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>36</v>
+      </c>
       <c r="D24" s="0"/>
-      <c r="E24" s="0">
-        <v>0</v>
-      </c>
-      <c r="F24" s="0">
-        <v>0</v>
-      </c>
-      <c r="G24" s="0"/>
+      <c r="E24" s="0"/>
+      <c r="F24" s="0"/>
+      <c r="G24" s="0" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="B25" s="0">
-        <v>0</v>
-      </c>
-      <c r="C25" s="0"/>
+        <v>12</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>37</v>
+      </c>
       <c r="D25" s="0"/>
-      <c r="E25" s="0">
-        <v>0</v>
-      </c>
-      <c r="F25" s="0">
-        <v>0</v>
-      </c>
-      <c r="G25" s="0"/>
+      <c r="E25" s="0"/>
+      <c r="F25" s="0"/>
+      <c r="G25" s="0" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="B26" s="0">
-        <v>0</v>
-      </c>
-      <c r="C26" s="0"/>
+        <v>13</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>38</v>
+      </c>
       <c r="D26" s="0"/>
-      <c r="E26" s="0">
-        <v>0</v>
-      </c>
-      <c r="F26" s="0">
-        <v>0</v>
-      </c>
-      <c r="G26" s="0"/>
+      <c r="E26" s="0"/>
+      <c r="F26" s="0"/>
+      <c r="G26" s="0" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="B27" s="0">
-        <v>0</v>
-      </c>
-      <c r="C27" s="0"/>
+        <v>14</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>39</v>
+      </c>
       <c r="D27" s="0"/>
-      <c r="E27" s="0">
-        <v>0</v>
-      </c>
-      <c r="F27" s="0">
-        <v>0</v>
-      </c>
-      <c r="G27" s="0"/>
+      <c r="E27" s="0"/>
+      <c r="F27" s="0"/>
+      <c r="G27" s="0" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="B28" s="0">
-        <v>0</v>
-      </c>
-      <c r="C28" s="0"/>
+        <v>15</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>40</v>
+      </c>
       <c r="D28" s="0"/>
-      <c r="E28" s="0">
-        <v>0</v>
-      </c>
-      <c r="F28" s="0">
-        <v>0</v>
-      </c>
-      <c r="G28" s="0"/>
+      <c r="E28" s="0"/>
+      <c r="F28" s="0"/>
+      <c r="G28" s="0" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="B29" s="0">
-        <v>0</v>
-      </c>
-      <c r="C29" s="0"/>
+        <v>16</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>41</v>
+      </c>
       <c r="D29" s="0"/>
-      <c r="E29" s="0">
-        <v>0</v>
-      </c>
-      <c r="F29" s="0">
-        <v>0</v>
-      </c>
-      <c r="G29" s="0"/>
+      <c r="E29" s="0"/>
+      <c r="F29" s="0"/>
+      <c r="G29" s="0" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="B30" s="0">
-        <v>0</v>
-      </c>
-      <c r="C30" s="0"/>
+        <v>13</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>42</v>
+      </c>
       <c r="D30" s="0"/>
-      <c r="E30" s="0">
-        <v>0</v>
-      </c>
-      <c r="F30" s="0">
-        <v>0</v>
-      </c>
-      <c r="G30" s="0"/>
+      <c r="E30" s="0"/>
+      <c r="F30" s="0"/>
+      <c r="G30" s="0" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="B31" s="0">
-        <v>0</v>
-      </c>
-      <c r="C31" s="0"/>
+        <v>14</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>43</v>
+      </c>
       <c r="D31" s="0"/>
-      <c r="E31" s="0">
-        <v>0</v>
-      </c>
-      <c r="F31" s="0">
-        <v>0</v>
-      </c>
-      <c r="G31" s="0"/>
+      <c r="E31" s="0"/>
+      <c r="F31" s="0"/>
+      <c r="G31" s="0" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="B32" s="0">
-        <v>0</v>
-      </c>
-      <c r="C32" s="0"/>
+        <v>15</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>44</v>
+      </c>
       <c r="D32" s="0"/>
-      <c r="E32" s="0">
-        <v>0</v>
-      </c>
-      <c r="F32" s="0">
-        <v>0</v>
-      </c>
-      <c r="G32" s="0"/>
+      <c r="E32" s="0"/>
+      <c r="F32" s="0"/>
+      <c r="G32" s="0" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="B33" s="0">
-        <v>0</v>
-      </c>
-      <c r="C33" s="0"/>
+        <v>16</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>45</v>
+      </c>
       <c r="D33" s="0"/>
-      <c r="E33" s="0">
-        <v>0</v>
-      </c>
-      <c r="F33" s="0">
-        <v>0</v>
-      </c>
-      <c r="G33" s="0"/>
+      <c r="E33" s="0"/>
+      <c r="F33" s="0"/>
+      <c r="G33" s="0" t="s">
+        <v>46</v>
+      </c>
     </row>
   </sheetData>
 </worksheet>
